--- a/KAOS 2022/REKAPITULASI.xlsx
+++ b/KAOS 2022/REKAPITULASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\KAOS 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F7E2F7-719A-49FA-BB9B-5C981ABF6CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF5A89D-D510-45A7-B612-1AF20F49C3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,63 +706,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>5</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6</v>
-      </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>7</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <f>SUM(D2:D51)/3</f>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>SUM(D2:D50)/3</f>
         <v>406.33333333333331</v>
       </c>
     </row>

--- a/KAOS 2022/REKAPITULASI.xlsx
+++ b/KAOS 2022/REKAPITULASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\KAOS 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF5A89D-D510-45A7-B612-1AF20F49C3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670FF73-A6B7-4E2B-B276-58E287EB88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>NO</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>INDAH</t>
+  </si>
+  <si>
+    <t>01 MARET</t>
+  </si>
+  <si>
+    <t>TAUFAN</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +716,21 @@
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -763,7 +783,7 @@
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51">
         <f>SUM(D2:D50)/3</f>
-        <v>406.33333333333331</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/KAOS 2022/REKAPITULASI.xlsx
+++ b/KAOS 2022/REKAPITULASI.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\KAOS 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670FF73-A6B7-4E2B-B276-58E287EB88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C82772-1562-4C75-9217-1C1B732199EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="REKAPITULASI" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>NO</t>
   </si>
@@ -42,9 +41,6 @@
     <t>TGL</t>
   </si>
   <si>
-    <t>BAYAR</t>
-  </si>
-  <si>
     <t>KAOS</t>
   </si>
   <si>
@@ -54,9 +50,6 @@
     <t>TOPI</t>
   </si>
   <si>
-    <t>BELUM TERBAYAR</t>
-  </si>
-  <si>
     <t>HARGA</t>
   </si>
   <si>
@@ -81,9 +74,6 @@
     <t>24 MARET 2021</t>
   </si>
   <si>
-    <t>KIRIM</t>
-  </si>
-  <si>
     <t>TGL FAKTUR</t>
   </si>
   <si>
@@ -123,49 +113,85 @@
     <t>BARANG</t>
   </si>
   <si>
-    <t>25 JANUARI</t>
-  </si>
-  <si>
-    <t>KIRIM KE</t>
-  </si>
-  <si>
     <t>POLTEKPEL SBY</t>
   </si>
   <si>
     <t>PENERIMA</t>
   </si>
   <si>
-    <t>HERI CAHYONO (0881026081112)</t>
-  </si>
-  <si>
-    <t>23 FEBRUARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>LADY SARI DEWI (081232200302)</t>
-  </si>
-  <si>
     <t>HOTEL YELLOW JEMURSARI</t>
   </si>
   <si>
     <t>HOTEL POP STASIUN KOTA</t>
   </si>
   <si>
-    <t>RARA (081215367077)</t>
-  </si>
-  <si>
-    <t>28 FEBRUARI</t>
-  </si>
-  <si>
     <t>INDAH</t>
   </si>
   <si>
-    <t>01 MARET</t>
-  </si>
-  <si>
-    <t>TAUFAN</t>
+    <t>PENGIRIMAN</t>
+  </si>
+  <si>
+    <t>LOKASI</t>
+  </si>
+  <si>
+    <t>TELP</t>
+  </si>
+  <si>
+    <t>25 JANUARI 2022</t>
+  </si>
+  <si>
+    <t>HERI CAHYONO</t>
+  </si>
+  <si>
+    <t>0881026081112</t>
+  </si>
+  <si>
+    <t>23 FEBRUARI 2022</t>
+  </si>
+  <si>
+    <t>LADY SARI DEWI</t>
+  </si>
+  <si>
+    <t>081232200302</t>
+  </si>
+  <si>
+    <t>RARA</t>
+  </si>
+  <si>
+    <t>081215367077</t>
+  </si>
+  <si>
+    <t>28 FEBRUARI 2022</t>
+  </si>
+  <si>
+    <t>01 MARET 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAUFAN </t>
+  </si>
+  <si>
+    <t>082245883362</t>
+  </si>
+  <si>
+    <t>14 MARET 2022</t>
+  </si>
+  <si>
+    <t>HOTEL POP DIPONEGORO</t>
+  </si>
+  <si>
+    <t>AKBAR/VINCENT</t>
+  </si>
+  <si>
+    <t>081296017297</t>
+  </si>
+  <si>
+    <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>HISTORY PENGIRIMAN KELENGKAPAN</t>
+  </si>
+  <si>
+    <t>DIKLAT KEMSYARAKATAN POLTEKPEL SBY TAHUN 2022</t>
   </si>
 </sst>
 </file>
@@ -237,10 +263,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,8 +295,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -553,241 +611,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259F1B4-8B6F-4EF8-A921-40640394D895}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5">
+        <v>185</v>
+      </c>
+      <c r="D6" s="5">
+        <v>185</v>
+      </c>
+      <c r="E6" s="5">
+        <v>185</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5">
+        <v>138</v>
+      </c>
+      <c r="E7" s="5">
+        <v>138</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
+        <v>137</v>
+      </c>
+      <c r="E8" s="5">
+        <v>137</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5">
+        <v>114</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>185</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>138</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>137</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>114</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51">
-        <f>SUM(D2:D50)/3</f>
-        <v>410</v>
-      </c>
+      <c r="B11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5">
+        <v>179</v>
+      </c>
+      <c r="D11" s="5">
+        <v>179</v>
+      </c>
+      <c r="E11" s="5">
+        <v>179</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM(C6:C12)</f>
+        <v>489</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(D6:D12)</f>
+        <v>639</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM(E6:E12)</f>
+        <v>639</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="6">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.38" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -796,273 +911,261 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>155000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>155000</v>
-      </c>
-      <c r="D3" s="5">
-        <v>220000</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>60000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>85000</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>40000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>55000</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
         <v>255000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <f>SUM(D3:D5)</f>
         <v>360000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <f>D6-C6</f>
         <v>105000</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>41745000</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <f>C9*1.5%</f>
         <v>626175</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
         <f>C9-C10</f>
         <v>41118825</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
         <f>3%*(41745000+4174500)</f>
         <v>1377585</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
         <f>C11-C12</f>
         <v>39741240</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
         <f>C13/110</f>
         <v>361284</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>2</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>10000</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <f>410*D19</f>
         <v>4100000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>10000</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <f>170*D20</f>
         <v>1700000</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>10000</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <f>400*D21</f>
         <v>4000000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8">
         <f>SUM(E19:E21)</f>
         <v>9800000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259F1B4-8B6F-4EF8-A921-40640394D895}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KAOS 2022/REKAPITULASI.xlsx
+++ b/KAOS 2022/REKAPITULASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\KAOS 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C82772-1562-4C75-9217-1C1B732199EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E6BB8-36C1-49D0-9697-9AEEFC40CF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>NO</t>
   </si>
@@ -192,6 +192,51 @@
   </si>
   <si>
     <t>DIKLAT KEMSYARAKATAN POLTEKPEL SBY TAHUN 2022</t>
+  </si>
+  <si>
+    <t>20 MARET 2022</t>
+  </si>
+  <si>
+    <t>HOTEL RED PLANET</t>
+  </si>
+  <si>
+    <t>KURANG</t>
+  </si>
+  <si>
+    <t>HISTORY ORDER</t>
+  </si>
+  <si>
+    <t>PAK KHOIRUL</t>
+  </si>
+  <si>
+    <t>14 MARET</t>
+  </si>
+  <si>
+    <t>16 MARET</t>
+  </si>
+  <si>
+    <t>28 JANUARI</t>
+  </si>
+  <si>
+    <t>24 JANUARI</t>
+  </si>
+  <si>
+    <t>MESRAN</t>
+  </si>
+  <si>
+    <t>17 MARET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 MARET </t>
+  </si>
+  <si>
+    <t>26 FEBRUARI</t>
+  </si>
+  <si>
+    <t>22 FEBRUARI</t>
+  </si>
+  <si>
+    <t>21 FEBRUARI</t>
   </si>
 </sst>
 </file>
@@ -231,12 +276,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -263,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,6 +372,18 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259F1B4-8B6F-4EF8-A921-40640394D895}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -632,50 +695,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -852,12 +915,24 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5">
+        <v>122</v>
+      </c>
+      <c r="D12" s="5">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5">
+        <v>122</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="18"/>
     </row>
@@ -878,19 +953,200 @@
       </c>
       <c r="C14" s="4">
         <f>SUM(C6:C12)</f>
-        <v>489</v>
+        <v>611</v>
       </c>
       <c r="D14" s="4">
         <f>SUM(D6:D12)</f>
-        <v>639</v>
+        <v>761</v>
       </c>
       <c r="E14" s="4">
         <f>SUM(E6:E12)</f>
-        <v>639</v>
+        <v>761</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="23">
+        <f>800-C14</f>
+        <v>189</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" ref="D16:E16" si="0">800-D14</f>
+        <v>39</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>250</v>
+      </c>
+      <c r="D20" s="1">
+        <v>250</v>
+      </c>
+      <c r="E20" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1">
+        <v>121</v>
+      </c>
+      <c r="D29" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1">
+        <v>189</v>
+      </c>
+      <c r="E31" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="20">
+        <f>SUM(C20:C34)</f>
+        <v>850</v>
+      </c>
+      <c r="D35" s="20">
+        <f>SUM(D20:D34)</f>
+        <v>850</v>
+      </c>
+      <c r="E35" s="1">
+        <f>SUM(E20:E34)</f>
+        <v>670</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -911,7 +1167,7 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/KAOS 2022/REKAPITULASI.xlsx
+++ b/KAOS 2022/REKAPITULASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\KAOS 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E6BB8-36C1-49D0-9697-9AEEFC40CF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695BF4EA-AA74-4A74-A5B1-0DEE55BD1747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>NO</t>
   </si>
@@ -125,9 +125,6 @@
     <t>HOTEL POP STASIUN KOTA</t>
   </si>
   <si>
-    <t>INDAH</t>
-  </si>
-  <si>
     <t>PENGIRIMAN</t>
   </si>
   <si>
@@ -237,6 +234,15 @@
   </si>
   <si>
     <t>21 FEBRUARI</t>
+  </si>
+  <si>
+    <t>FERI / RIO</t>
+  </si>
+  <si>
+    <t>081380582751</t>
+  </si>
+  <si>
+    <t>INDAH / RARA</t>
   </si>
 </sst>
 </file>
@@ -677,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259F1B4-8B6F-4EF8-A921-40640394D895}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,7 +702,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -708,7 +714,7 @@
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -731,7 +737,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
@@ -749,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5">
         <v>185</v>
@@ -778,10 +784,10 @@
         <v>26</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>23</v>
@@ -804,10 +810,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>23</v>
@@ -830,10 +836,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>114</v>
@@ -856,10 +862,10 @@
         <v>29</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -867,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5">
         <v>11</v>
@@ -882,10 +888,10 @@
         <v>26</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5">
         <v>179</v>
@@ -905,13 +911,13 @@
         <v>179</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5">
         <v>122</v>
@@ -931,10 +937,14 @@
         <v>122</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -949,7 +959,7 @@
     <row r="14" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4">
         <f>SUM(C6:C12)</f>
@@ -969,7 +979,7 @@
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="23">
         <f>800-C14</f>
@@ -986,7 +996,7 @@
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1003,12 +1013,12 @@
         <v>1</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>250</v>
@@ -1022,7 +1032,7 @@
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
@@ -1036,7 +1046,7 @@
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
@@ -1058,7 +1068,7 @@
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1">
         <v>125</v>
@@ -1066,7 +1076,7 @@
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1">
         <v>125</v>
@@ -1077,12 +1087,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>121</v>
@@ -1093,7 +1103,7 @@
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1">
         <v>190</v>
@@ -1101,7 +1111,7 @@
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1">
         <v>189</v>
@@ -1112,7 +1122,7 @@
     </row>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1">
         <v>47</v>
@@ -1120,7 +1130,7 @@
     </row>
     <row r="33" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1">
         <v>58</v>
@@ -1128,7 +1138,7 @@
     </row>
     <row r="34" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="1">
         <v>30</v>
